--- a/output/fit_clients/fit_round_78.xlsx
+++ b/output/fit_clients/fit_round_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8524394310.389867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003230859333178761</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.975620227469551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9618989825730349</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.975620227469551</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6689269238.57499</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005674801927615669</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.352028918729318</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8996961252504276</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.352028918729318</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4082251642.964767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003546905947154702</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.696853014914462</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9468093356162909</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.696853014914462</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3333920064.067442</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004389636208516992</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.49844461624064</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8411174777945271</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.49844461624064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5515531525.771378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001964400675560808</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.356177847212684</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8817985909643988</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.356177847212684</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8337348844.838221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001065670344823516</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.406803421557086</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9136521793640965</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.406803421557086</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6566040522.182487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003121674017620747</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.116640761109831</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9627662465778067</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.116640761109831</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5889875990.258123</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005499772124330103</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.704231571694895</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8973365099655752</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.704231571694895</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3940219295.506383</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004096553860527812</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.545482086852366</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.94974921846937</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.545482086852366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5012226719.235621</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001098701982111145</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6741693327256119</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.322816993032214</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7830987684174679</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.322816993032214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8669951478.811646</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001464163516138058</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.831950126439914</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.987689317666443</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.831950126439914</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5788197608.216769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002977866242108264</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.406174503565384</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.032358357548715</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.406174503565384</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8572332032.245678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003064445432576145</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.935376434550725</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.910186182497328</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.935376434550725</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6723132395.288751</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004049706842797057</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.327890347298425</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.005937679143034</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.327890347298425</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8285217516.993699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004470176387609179</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.013512336026267</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9282977349952823</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.013512336026267</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4673488593.733965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003145004810315805</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.863739556018486</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9504519621121111</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.863739556018486</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4466353463.840932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001148951007885117</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.896696025578527</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9383318688853093</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.896696025578527</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4339855955.904228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001620634664772079</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>15</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9407743570073467</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.659110264290021</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.122955930185821</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.659110264290021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5221511952.506911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001177995782876546</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.004478750321771</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8389910505647744</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.004478750321771</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5634636692.553097</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004199199587224851</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.818831428716422</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8793909536453992</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.818831428716422</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4493009849.829124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004184419107484867</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.481485352326577</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7953355052917755</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.481485352326577</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>9206859154.76405</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001537433680211478</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.20588253497156</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8651203279238245</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.20588253497156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8091836145.053123</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004799614329805532</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.846644785319074</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9939903734332747</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.846644785319074</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7445281417.623307</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003260970717183197</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.268391458171547</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9573470027519647</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.268391458171547</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4984438877.345852</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001419834065306954</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.209329736435413</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8198168704587903</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.209329736435413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7274640607.33686</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003511044206034152</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.598631123984492</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9365095992524289</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.598631123984492</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9062097313.232082</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00546903069726866</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.862988824219335</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9213664699655933</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.862988824219335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6407514837.007317</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001581478301851021</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4470047639756158</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.941411423498272</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7680551404322981</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.941411423498272</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5815989593.17848</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003078191839984381</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>17</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9044139015404689</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.373327403684176</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.061290442680136</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.373327403684176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6699383450.096866</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.00223641253211396</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.450982004418405</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9546871865327614</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.450982004418405</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4849991204.208143</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0008991414752988652</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5647643897410651</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.724905957983688</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8161055161861992</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.724905957983688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7170734655.951739</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003253526866460515</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.03859168645129</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8559834797428402</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.03859168645129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7469315359.591951</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003825377092274845</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.800101604823181</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7573253339374636</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.800101604823181</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4758343046.147158</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001881970860968454</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.646923227602074</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9311168058817825</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.646923227602074</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5512993738.894428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003607032061134312</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.736289885375306</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.022882206785106</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.736289885375306</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5727858207.737862</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004048868825528807</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.551038680091321</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.002535625786918</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.551038680091321</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3147271101.803906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00358841283335588</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.492758184678421</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9071611255785477</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.492758184678421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6447379137.388783</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.001984216000117047</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.03068200248992</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8702569893479741</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.03068200248992</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6121717703.195574</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004740578513985508</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.693491377596315</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9765846347168388</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.693491377596315</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7179132854.973781</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001529908802298809</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.088276715767355</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9440371267127373</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.088276715767355</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6329901246.876417</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004108976015028996</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.472362603519755</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9788838603677437</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.472362603519755</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4767746928.44104</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003295400422030565</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.694225823642385</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9174264652435983</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.694225823642385</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6230546639.001906</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00168435694393749</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>19</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.497845011976042</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9326335704039659</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.497845011976042</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5900489613.304111</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001109681160158644</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.022495091869069</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9653117778069135</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.022495091869069</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7512579619.220239</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003374865949860543</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.59970220791451</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8280023496700653</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.59970220791451</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8036652035.05716</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002620287568454375</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.570159056100835</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9027461973549127</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.570159056100835</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5052474325.671111</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002480203892203711</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.256078022117074</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9616848408783663</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.256078022117074</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5272696066.534228</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003599816095839529</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9328082828559958</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.454244070643075</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.057637868881831</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.454244070643075</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8727392370.507214</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002977069916414197</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.63796238543835</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.02994063647016</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.63796238543835</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4725883158.257146</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004298579983006872</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>19</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6424403234702228</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.445459044351624</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9153348658256515</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.445459044351624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7746756514.425333</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001789747614366827</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.768812811878238</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8702569893479741</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.768812811878238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6764055659.446399</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002266633787953718</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.754734545258063</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9324127075199362</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.754734545258063</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5681704622.653968</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005146874590004982</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9610162492235017</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.357840264645225</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.057260144532815</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.357840264645225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6290996908.069884</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002971462261855395</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>17</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.989172640322678</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.494268353430221</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.143290053683566</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.494268353430221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4354392631.670966</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00193811593669371</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.610288046443403</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.906013352764002</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.610288046443403</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7613709210.468154</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003298193853679683</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.61049335547802</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.833214365653355</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.61049335547802</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5470410076.742721</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002514572339018574</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.355072718905113</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8353087613151622</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.355072718905113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6854962332.820886</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003117188222523991</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8342235141391748</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.61532886108083</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.01977866681512</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.61532886108083</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5452748966.59867</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002672264512161533</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>17</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8797734767966673</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.381256099620042</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9796728433393923</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.381256099620042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7255328152.29323</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003799302759881645</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.99398742239025</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9413397033290956</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.99398742239025</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4586093046.559457</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003855830382145548</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.155853619698043</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8732634475959253</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.155853619698043</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6898336066.911901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005737512185546154</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>22</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.184802297358357</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5310850045437944</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.184802297358357</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4744002904.875864</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005462861778539728</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.795643070728751</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9019630045707401</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.795643070728751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5981046181.612058</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005531803402420731</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.953771645216785</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.002868564729077</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.953771645216785</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4882542180.314852</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003233055311084837</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.775981976107477</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9177902790284688</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.775981976107477</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7068385081.164923</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004663434718827622</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.032588767117972</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8917068401782881</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.032588767117972</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7630324939.80584</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003092973223304418</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.64824082423991</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.244445316872759</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6975178997900425</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.244445316872759</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4620268933.457372</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001038450998434363</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.1998923280698089</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.017384411912412</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.4193668040433488</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.017384411912412</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6517971094.379273</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003473558687439179</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8276258574418918</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.88398218000549</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.018914979458608</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.88398218000549</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4875537616.202714</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003925402071630043</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.789290250858936</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8056856608175331</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.789290250858936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7648241349.74824</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002182767903260538</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.500089803465486</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.04553913262062</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.500089803465486</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7330597013.36806</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001291666130441223</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.925889561111972</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9667345126231941</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.925889561111972</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4281441398.303814</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005105676473577031</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.675838114107401</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8854760582870708</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.675838114107401</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7246423859.755229</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003805489155532315</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>16</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.894505017394313</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.657688158963714</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.036764673573995</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.657688158963714</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5127906605.215202</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002759983449101793</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.3526299395725312</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.527046243366505</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.577509789145325</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.527046243366505</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6982436356.72264</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004373455592060858</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.106899751928585</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9923991905751279</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.106899751928585</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7811048073.362976</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004500529660178271</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.689663774173302</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9299985988275592</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.689663774173302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6661147591.937122</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002591401780466867</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.3273747486601564</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.759340033021828</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.5951334491545792</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.759340033021828</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7138580185.571313</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002284176159975381</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.674911899519007</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9622865533455854</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.674911899519007</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5873135303.861353</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003279163017549897</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.491251094865902</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.994997434131061</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.491251094865902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6134709671.593695</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005138884295137816</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.456798428244902</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8833558425407396</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.456798428244902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7397439693.403007</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003492571450446012</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.200695364472018</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8282510552718543</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.200695364472018</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6742656703.561195</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004846380220090507</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5045094574136432</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.350943150788751</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.7802322148580653</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.350943150788751</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4304755133.435596</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00349112060137523</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.211180122483598</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8958471429423847</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.211180122483598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5703763715.197374</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001858206054631197</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>17</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.766809435134018</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9882356929811764</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.766809435134018</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5222281038.536227</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001281258974823073</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.162846946155037</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.960509731380101</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.162846946155037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>5758592314.666867</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.00354835719112889</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.586395833372792</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8505185197107092</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.586395833372792</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5546643811.255087</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004948362058326372</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.050035735199298</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9678102759689392</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.050035735199298</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6187141010.102041</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00272128685446026</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>13</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.765631251811</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9589963465530108</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.765631251811</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6732202230.652357</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004073667891839395</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.811784523180673</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8161569221761442</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.811784523180673</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4068468812.174533</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003973901834849301</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.018115008736548</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.059186353566294</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.018115008736548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5853851963.409764</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001566646592106172</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.591858473446406</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9298190981294844</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.591858473446406</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5705388583.751265</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001513366741438609</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.888934422737985</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.01076629298826</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.888934422737985</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7898632051.30887</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002213817499957898</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.878516115320068</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9327706761548894</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.878516115320068</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8479507961.210395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002418416241051102</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>22</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.273430815272355</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9094952520130998</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.273430815272355</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6761840475.36829</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005480109201042874</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.79412785795091</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8934773628047881</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.79412785795091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6074312671.741575</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004759542811936948</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.469694790326414</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8638715115616795</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.469694790326414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2935802177.18439</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00521658565814856</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.486450250214495</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9010372182877899</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.486450250214495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5344450356.233574</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002520377641631148</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6762669702295302</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.671491987939241</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8309138300434525</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.671491987939241</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5358316249.741644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001148803833149373</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.78787030285129</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.130329585889806</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.78787030285129</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_78.xlsx
+++ b/output/fit_clients/fit_round_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8524394310.389867</v>
+        <v>2019810187.313343</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003230859333178761</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19</v>
+        <v>0.1021214634580151</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04101750393198879</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1009905091.878185</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1691183964.82304</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1312763189827605</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04653501714206211</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6689269238.57499</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005674801927615669</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+      <c r="J3" t="n">
+        <v>845591974.5578202</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4395617840.443292</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1442008820099772</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03361122135190225</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4082251642.964767</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003546905947154702</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2197808962.341112</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3333920064.067442</v>
+        <v>2848921808.218786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004389636208516992</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09133756788780764</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04700301185246863</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1424460983.89283</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5515531525.771378</v>
+        <v>2526960352.999293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001964400675560808</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.09555658434148465</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04134936271590092</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1263480148.954058</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8337348844.838221</v>
+        <v>2641690590.660511</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001065670344823516</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.07267914223753466</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04391912451960421</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1320845294.621845</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6566040522.182487</v>
+        <v>2768686795.941488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003121674017620747</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1877967554599967</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02604675339659549</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1384343431.743125</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5889875990.258123</v>
+        <v>1776081299.632211</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005499772124330103</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1294817429478504</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0328649115130515</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>888040707.3848737</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3940219295.506383</v>
+        <v>5934612391.887638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004096553860527812</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1431073471440717</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0435639656129603</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2967306367.547794</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5012226719.235621</v>
+        <v>3318474217.13726</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001098701982111145</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1572966585386812</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04435094655403476</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1659237073.611084</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8669951478.811646</v>
+        <v>3024223215.598772</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001464163516138058</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22</v>
+        <v>0.1276334703133518</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0479355329555121</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1512111627.921002</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5788197608.216769</v>
+        <v>3629227903.846107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002977866242108264</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.07653467121012432</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02046307685146509</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1814614025.604394</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8572332032.245678</v>
+        <v>3307477375.217605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003064445432576145</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18</v>
+        <v>0.1427394298779536</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03611264695828019</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1653738699.692681</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6723132395.288751</v>
+        <v>1360321063.646477</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004049706842797057</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.07381598672847962</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03287200542857405</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>680160585.5766387</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8285217516.993699</v>
+        <v>2688179480.958706</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004470176387609179</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>24</v>
+        <v>0.08623836480759964</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03682489020486426</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1344089754.402788</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4673488593.733965</v>
+        <v>4079439332.167995</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003145004810315805</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1387260175109119</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04440254526783665</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2039719696.621106</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4466353463.840932</v>
+        <v>3191080212.004057</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001148951007885117</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>22</v>
+        <v>0.1322916126206404</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02585811549038309</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1595540122.382776</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4339855955.904228</v>
+        <v>1228806974.95747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001620634664772079</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1907973513927978</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02593118052929561</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>614403572.3059707</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5221511952.506911</v>
+        <v>2401430526.421605</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001177995782876546</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1034084966052756</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01962800058144265</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1200715246.707193</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5634636692.553097</v>
+        <v>2245314206.763962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004199199587224851</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>0.08278979535176781</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03047142342494735</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1122657115.810581</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4493009849.829124</v>
+        <v>3468314796.455873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004184419107484867</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.09077166080722678</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04643506938502369</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1734157431.621738</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>9206859154.76405</v>
+        <v>1120563612.456913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001537433680211478</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14</v>
+        <v>0.152163123787062</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03581844891299418</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>560281856.0120705</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8091836145.053123</v>
+        <v>3641633831.658969</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004799614329805532</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.1392156924384541</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03181007190805028</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1820816907.796623</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7445281417.623307</v>
+        <v>1353059558.866493</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003260970717183197</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
+        <v>0.1157334088982343</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02478523902558717</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>676529762.0992534</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4984438877.345852</v>
+        <v>1009317412.521194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001419834065306954</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1132797421890051</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02802369072666348</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>504658680.4909384</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7274640607.33686</v>
+        <v>3089333188.069839</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003511044206034152</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1437118629924834</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02388997832731458</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1544666649.354938</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>9062097313.232082</v>
+        <v>2670155211.400183</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00546903069726866</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>19</v>
+        <v>0.1101274895081834</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04682945271014723</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1335077588.189474</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6407514837.007317</v>
+        <v>5147033531.128155</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001581478301851021</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.0930869435551638</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04248030596385743</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2573516702.786068</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5815989593.17848</v>
+        <v>1474959232.673023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003078191839984381</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1090267428820088</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04010311604502369</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>737479593.8958465</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6699383450.096866</v>
+        <v>1458571576.182085</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00223641253211396</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
+        <v>0.1036342560325984</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04597455187422329</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>729285678.6151245</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4849991204.208143</v>
+        <v>1710319515.468377</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0008991414752988652</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07641427328280519</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02915061813215403</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>855159869.5572126</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7170734655.951739</v>
+        <v>2211444146.468433</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003253526866460515</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>17</v>
+        <v>0.1532163717466923</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04795642390206339</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1105722135.926523</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7469315359.591951</v>
+        <v>1233672946.682633</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003825377092274845</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>23</v>
+        <v>0.09946140801120501</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02623621946103897</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>616836472.7896944</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4758343046.147158</v>
+        <v>1243202673.628012</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001881970860968454</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>20</v>
+        <v>0.07228374373124589</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0294062511352976</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>621601301.9711772</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5512993738.894428</v>
+        <v>2388065909.926434</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003607032061134312</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>22</v>
+        <v>0.1214699647140197</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02630546642358486</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1194032985.80402</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5727858207.737862</v>
+        <v>1946204392.358253</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004048868825528807</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.09255402546233521</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03141688250962345</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>973102215.9699244</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3147271101.803906</v>
+        <v>1521893967.429437</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00358841283335588</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08865881507742801</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03780973043408056</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>760947029.7875205</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6447379137.388783</v>
+        <v>2035040035.695714</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001984216000117047</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
+        <v>0.1572204012842393</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02336391825404988</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1017520006.968758</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6121717703.195574</v>
+        <v>1467821172.609685</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004740578513985508</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>24</v>
+        <v>0.1196635649831697</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04358586130247202</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>733910560.4766572</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7179132854.973781</v>
+        <v>2714720039.236823</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001529908802298809</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1106944176417696</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03711306843576601</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>22</v>
+      <c r="I41" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1357360023.763466</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6329901246.876417</v>
+        <v>3665815575.030241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004108976015028996</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1033291678310092</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03112108047424519</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1832907793.692686</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4767746928.44104</v>
+        <v>2043611317.183387</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003295400422030565</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1414319933832645</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02523543260361388</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1021805753.04758</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6230546639.001906</v>
+        <v>2153513842.549156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00168435694393749</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>21</v>
+        <v>0.07551741004445693</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03122573322082165</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1076757058.158191</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5900489613.304111</v>
+        <v>1573224761.27557</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001109681160158644</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1568468968379717</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03686055448233983</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>786612328.4252648</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7512579619.220239</v>
+        <v>3998776260.683635</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003374865949860543</v>
-      </c>
-      <c r="G46" t="b">
+        <v>0.156524928174819</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03833552520084915</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>12</v>
+      <c r="I46" t="n">
+        <v>28</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1999388099.731448</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8036652035.05716</v>
+        <v>3862291282.462513</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002620287568454375</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1697890538138624</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03607453763469375</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1931145632.454384</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5052474325.671111</v>
+        <v>3888399608.625227</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002480203892203711</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>14</v>
+        <v>0.07023857159692659</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03611996081950158</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1944199845.068441</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5272696066.534228</v>
+        <v>1846656588.395835</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003599816095839529</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1539570786387015</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04240928104971552</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>923328272.2241106</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8727392370.507214</v>
+        <v>3919026952.13926</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002977069916414197</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>21</v>
+        <v>0.135762688950287</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04712982043415563</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1959513470.42088</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4725883158.257146</v>
+        <v>1180162298.146073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004298579983006872</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1918848541594961</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03482336755192788</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>590081203.7337441</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7746756514.425333</v>
+        <v>4417085850.877082</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001789747614366827</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>19</v>
+        <v>0.1277224343486206</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05012017251570327</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>32</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2208542957.282903</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6764055659.446399</v>
+        <v>3266221338.119289</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002266633787953718</v>
-      </c>
-      <c r="G53" t="b">
+        <v>0.1341982760831276</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03301512933354324</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>14</v>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1633110683.019379</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5681704622.653968</v>
+        <v>4922752492.433343</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005146874590004982</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>20</v>
+        <v>0.1558546813801333</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03817717414484462</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2461376382.632044</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>446</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3642922644.384938</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1751992161530083</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02050708591201401</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>568</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6290996908.069884</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.002971462261855395</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>25</v>
+      <c r="I55" t="n">
+        <v>21</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1821461281.233976</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4354392631.670966</v>
+        <v>1498685870.798948</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00193811593669371</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1536708890021536</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03870948396850662</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>749342977.7615182</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7613709210.468154</v>
+        <v>3666697310.77634</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003298193853679683</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>18</v>
+        <v>0.1292739774961178</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02470879533515602</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1833348715.686483</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5470410076.742721</v>
+        <v>1882034514.874458</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002514572339018574</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>18</v>
+        <v>0.1467110493088495</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03656913461078482</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>941017253.627214</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6854962332.820886</v>
+        <v>5200961499.571355</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003117188222523991</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08729631956870959</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04137179944736958</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2600480667.698976</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5452748966.59867</v>
+        <v>2752653097.033428</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002672264512161533</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.2064129357533815</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02989172634742352</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1376326592.838722</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7255328152.29323</v>
+        <v>2641762869.465521</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003799302759881645</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>18</v>
+        <v>0.1427930522114617</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02760674981081111</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1320881448.893948</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4586093046.559457</v>
+        <v>1789765859.081342</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003855830382145548</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1248176450958268</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04478897819332428</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>894882956.0053654</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6898336066.911901</v>
+        <v>3836960675.06115</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005737512185546154</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.07607815019773594</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03948855151013588</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1918480407.105615</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4744002904.875864</v>
+        <v>4836953720.310304</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005462861778539728</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1547932579739725</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0322922314850902</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2418476954.802702</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5981046181.612058</v>
+        <v>5588043942.695989</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005531803402420731</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.1234276013395782</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03095107550807746</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2794021895.092366</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4882542180.314852</v>
+        <v>3542713341.691189</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003233055311084837</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.1294543201964094</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03246169196887252</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1771356619.856308</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7068385081.164923</v>
+        <v>3088302939.224936</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004663434718827622</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.09066085782832005</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04424570375855396</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1544151480.319602</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7630324939.80584</v>
+        <v>4228298542.139964</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003092973223304418</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16</v>
+        <v>0.140825720982579</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0392586342784134</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2114149280.609164</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4620268933.457372</v>
+        <v>2456634122.556499</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001038450998434363</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1606191710083051</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03780220351588801</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1228317125.180898</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6517971094.379273</v>
+        <v>2979630974.722172</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003473558687439179</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.07039503891900918</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03582347187773439</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>20</v>
+      <c r="I70" t="n">
+        <v>23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1489815462.943035</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4875537616.202714</v>
+        <v>4386263289.694527</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003925402071630043</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1742147004864279</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0315315637321858</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2193131704.646395</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7648241349.74824</v>
+        <v>2178425293.466949</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002182767903260538</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>16</v>
+        <v>0.1076840724357939</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04757688273969646</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1089212564.220556</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7330597013.36806</v>
+        <v>3507672508.612418</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001291666130441223</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.09450690356074691</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05067676028788006</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1753836203.707515</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4281441398.303814</v>
+        <v>2986370891.573734</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005105676473577031</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1353007193078272</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03162950818936138</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1493185512.269706</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7246423859.755229</v>
+        <v>2285780515.178761</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003805489155532315</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.1425679761648248</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03251908262000371</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1142890194.928026</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5127906605.215202</v>
+        <v>3453606026.817194</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002759983449101793</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>16</v>
+        <v>0.1041192135930226</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02330647848095521</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1726802975.088349</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6982436356.72264</v>
+        <v>1462947179.931005</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004373455592060858</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1787058561013012</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02496093847604997</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>731473572.0552542</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7811048073.362976</v>
+        <v>4605070241.628793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004500529660178271</v>
-      </c>
-      <c r="G78" t="b">
+        <v>0.09703931548707009</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0568173138940757</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>16</v>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2302535043.132506</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6661147591.937122</v>
+        <v>1499879138.359598</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002591401780466867</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1530982940493301</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02530209798094032</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>749939603.2450142</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7138580185.571313</v>
+        <v>4086950646.241312</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002284176159975381</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.06732529437601291</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03471547256401908</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2043475326.828303</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5873135303.861353</v>
+        <v>3188642319.103233</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003279163017549897</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.09525792339590035</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03202574036122247</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1594321092.535221</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6134709671.593695</v>
+        <v>5074629791.344562</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005138884295137816</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.1749313230979224</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02050048326113932</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>13</v>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2537314875.394001</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7397439693.403007</v>
+        <v>2264248571.966874</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003492571450446012</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1085482939291555</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03461244237173986</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1132124304.10903</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6742656703.561195</v>
+        <v>2606330367.344488</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004846380220090507</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.1200312693044081</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04254218004192452</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1303165099.778825</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4304755133.435596</v>
+        <v>3158277655.873337</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00349112060137523</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1376825451803295</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05464724739262557</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1579138905.46429</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5703763715.197374</v>
+        <v>2604321804.460891</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001858206054631197</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1534402217471418</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01861144885269225</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1302161013.810663</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5222281038.536227</v>
+        <v>1156862260.213397</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001281258974823073</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1422057013102281</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04003246863818761</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>578431174.5305997</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>5758592314.666867</v>
+        <v>3579768865.285252</v>
       </c>
       <c r="F88" t="n">
-        <v>0.00354835719112889</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1077091787345878</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02839693512630012</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1789884520.253836</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5546643811.255087</v>
+        <v>2424863295.805397</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004948362058326372</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>17</v>
+        <v>0.1586143652554309</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03827709181016963</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1212431728.083431</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6187141010.102041</v>
+        <v>1522532485.110026</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00272128685446026</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.08714118633499811</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03815984316888844</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>761266225.302747</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6732202230.652357</v>
+        <v>1512938067.951379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004073667891839395</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>23</v>
+        <v>0.1419924843372735</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04443031458832944</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>756469071.0779969</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>515</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2975824847.325617</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1101936895228442</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03404512943793729</v>
+      </c>
+      <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>534</v>
-      </c>
-      <c r="E92" t="n">
-        <v>4068468812.174533</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.003973901834849301</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+      <c r="I92" t="n">
+        <v>16</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1487912443.471068</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5853851963.409764</v>
+        <v>3362057973.803918</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001566646592106172</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>26</v>
+        <v>0.09672768456997569</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04106710232730664</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1681029028.669657</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5705388583.751265</v>
+        <v>1808822896.483436</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001513366741438609</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>25</v>
+        <v>0.1450496314946083</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03110096115720444</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>904411421.6089047</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7898632051.30887</v>
+        <v>2471137025.911309</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002213817499957898</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>19</v>
+        <v>0.0987332722724911</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03724039934322028</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>18</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1235568551.045862</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8479507961.210395</v>
+        <v>2202753794.942518</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002418416241051102</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>20</v>
+        <v>0.09493505123662198</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03906531022896388</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1101376862.712257</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6761840475.36829</v>
+        <v>4281535410.081771</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005480109201042874</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>20</v>
+        <v>0.1205791864943339</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02338858386994806</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2140767783.951483</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6074312671.741575</v>
+        <v>3493652734.275919</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004759542811936948</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>29</v>
+        <v>0.1199090090758608</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0311097446211607</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1746826385.217956</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2935802177.18439</v>
+        <v>2325300536.580232</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00521658565814856</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1474114895768908</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03051393661233992</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1162650205.22892</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5344450356.233574</v>
+        <v>3545362993.180619</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002520377641631148</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1664181999408999</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02147301405179897</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1772681530.868609</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5358316249.741644</v>
+        <v>3062639178.292581</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001148803833149373</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>25</v>
+        <v>0.1878894985256438</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05673717834932714</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1531319686.386672</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_78.xlsx
+++ b/output/fit_clients/fit_round_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2019810187.313343</v>
+        <v>1826006390.419475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1021214634580151</v>
+        <v>0.07060803243495749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04101750393198879</v>
+        <v>0.04073055496769395</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1009905091.878185</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1691183964.82304</v>
+        <v>2074768190.139479</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1312763189827605</v>
+        <v>0.1299276750335641</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04653501714206211</v>
+        <v>0.0391353741647306</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>845591974.5578202</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4395617840.443292</v>
+        <v>4019754929.053905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1442008820099772</v>
+        <v>0.1378992285417608</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03361122135190225</v>
+        <v>0.02968155599290464</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2197808962.341112</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2848921808.218786</v>
+        <v>3362673221.522346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09133756788780764</v>
+        <v>0.09241495690140643</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04700301185246863</v>
+        <v>0.05052937484133098</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1424460983.89283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2526960352.999293</v>
+        <v>2070074322.781898</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09555658434148465</v>
+        <v>0.1340668475519871</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04134936271590092</v>
+        <v>0.04823536016321379</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1263480148.954058</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2641690590.660511</v>
+        <v>2141992474.079451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07267914223753466</v>
+        <v>0.06661753502616512</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04391912451960421</v>
+        <v>0.03277631739052618</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1320845294.621845</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2768686795.941488</v>
+        <v>3491811988.576072</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1877967554599967</v>
+        <v>0.1959895209789267</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02604675339659549</v>
+        <v>0.02355725722346405</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1384343431.743125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1776081299.632211</v>
+        <v>1579564363.076495</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1294817429478504</v>
+        <v>0.1959862061188851</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0328649115130515</v>
+        <v>0.03313232334110275</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>888040707.3848737</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5934612391.887638</v>
+        <v>5659338241.380493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1431073471440717</v>
+        <v>0.1753165123058862</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0435639656129603</v>
+        <v>0.04290725458785103</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2967306367.547794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3318474217.13726</v>
+        <v>3480306688.615878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1572966585386812</v>
+        <v>0.1305186783281537</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04435094655403476</v>
+        <v>0.03148031114978811</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1659237073.611084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3024223215.598772</v>
+        <v>3278338593.651061</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1276334703133518</v>
+        <v>0.1567954229887069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0479355329555121</v>
+        <v>0.04819673184964711</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1512111627.921002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3629227903.846107</v>
+        <v>3959231735.348669</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07653467121012432</v>
+        <v>0.06603661060461287</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02046307685146509</v>
+        <v>0.02457723164672</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1814614025.604394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3307477375.217605</v>
+        <v>3736402430.566882</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1427394298779536</v>
+        <v>0.1211855120310932</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03611264695828019</v>
+        <v>0.03985724888115309</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1653738699.692681</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1360321063.646477</v>
+        <v>1386960896.722616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07381598672847962</v>
+        <v>0.1088711428423247</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03287200542857405</v>
+        <v>0.03638092647991666</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>680160585.5766387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2688179480.958706</v>
+        <v>2092208595.217715</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08623836480759964</v>
+        <v>0.1163560826906098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03682489020486426</v>
+        <v>0.03233144435583874</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1344089754.402788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4079439332.167995</v>
+        <v>3462057786.015123</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1387260175109119</v>
+        <v>0.1113460332124676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04440254526783665</v>
+        <v>0.03761733486275001</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2039719696.621106</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3191080212.004057</v>
+        <v>3548747245.193457</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1322916126206404</v>
+        <v>0.1700029141595718</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02585811549038309</v>
+        <v>0.02941076103192138</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1595540122.382776</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1228806974.95747</v>
+        <v>1323283629.356742</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1907973513927978</v>
+        <v>0.1522031600248716</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02593118052929561</v>
+        <v>0.02462978368819948</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>614403572.3059707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2401430526.421605</v>
+        <v>1824273753.873462</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034084966052756</v>
+        <v>0.1091464731147031</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01962800058144265</v>
+        <v>0.02168180246936051</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1200715246.707193</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2245314206.763962</v>
+        <v>2578258189.777369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08278979535176781</v>
+        <v>0.09209179152411108</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03047142342494735</v>
+        <v>0.03485348792545301</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1122657115.810581</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3468314796.455873</v>
+        <v>3341808168.938395</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09077166080722678</v>
+        <v>0.1420773720825271</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04643506938502369</v>
+        <v>0.03975337839104353</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1734157431.621738</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1120563612.456913</v>
+        <v>962039129.410563</v>
       </c>
       <c r="F23" t="n">
-        <v>0.152163123787062</v>
+        <v>0.1538177891505216</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03581844891299418</v>
+        <v>0.04439646756200887</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>560281856.0120705</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3641633831.658969</v>
+        <v>3915250916.82618</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1392156924384541</v>
+        <v>0.09416178564652242</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03181007190805028</v>
+        <v>0.02770201205616112</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>23</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1820816907.796623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1353059558.866493</v>
+        <v>1165807583.661489</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1157334088982343</v>
+        <v>0.09886061148741179</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02478523902558717</v>
+        <v>0.0297354063744719</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>676529762.0992534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1009317412.521194</v>
+        <v>888477973.398645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1132797421890051</v>
+        <v>0.08107960144239341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02802369072666348</v>
+        <v>0.03899411461860655</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>504658680.4909384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3089333188.069839</v>
+        <v>3062850260.479867</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1437118629924834</v>
+        <v>0.14289901031265</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388997832731458</v>
+        <v>0.01665745386794643</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1544666649.354938</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2670155211.400183</v>
+        <v>3554980536.889231</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1101274895081834</v>
+        <v>0.143848183642676</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04682945271014723</v>
+        <v>0.03715392320369679</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1335077588.189474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5147033531.128155</v>
+        <v>4520824568.087756</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0930869435551638</v>
+        <v>0.1322048704618286</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04248030596385743</v>
+        <v>0.04177816628127028</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2573516702.786068</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1474959232.673023</v>
+        <v>1692619542.453976</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1090267428820088</v>
+        <v>0.08802939826219786</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04010311604502369</v>
+        <v>0.0392588382962822</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>737479593.8958465</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458571576.182085</v>
+        <v>1436111627.157814</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1036342560325984</v>
+        <v>0.0694444883576487</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04597455187422329</v>
+        <v>0.03185246367441906</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>729285678.6151245</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1710319515.468377</v>
+        <v>1777038400.28109</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07641427328280519</v>
+        <v>0.08251684742058082</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02915061813215403</v>
+        <v>0.02539628876105891</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>855159869.5572126</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2211444146.468433</v>
+        <v>2627074127.35961</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1532163717466923</v>
+        <v>0.1625405408014786</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04795642390206339</v>
+        <v>0.05862709022199918</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>22</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1105722135.926523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1233672946.682633</v>
+        <v>1017872530.885423</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09946140801120501</v>
+        <v>0.1032588434563034</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02623621946103897</v>
+        <v>0.0195987617096711</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>616836472.7896944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1243202673.628012</v>
+        <v>1110298026.075869</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07228374373124589</v>
+        <v>0.09850680033774015</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0294062511352976</v>
+        <v>0.03387829304175592</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>621601301.9711772</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2388065909.926434</v>
+        <v>2258585727.701309</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1214699647140197</v>
+        <v>0.1513204558159794</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02630546642358486</v>
+        <v>0.02683892887773487</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1194032985.80402</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1946204392.358253</v>
+        <v>2099551211.527785</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09255402546233521</v>
+        <v>0.09025518956632265</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03141688250962345</v>
+        <v>0.04134795222126232</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>973102215.9699244</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1521893967.429437</v>
+        <v>1650996332.4697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08865881507742801</v>
+        <v>0.08179480883652485</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03780973043408056</v>
+        <v>0.0294934103161677</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>760947029.7875205</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2035040035.695714</v>
+        <v>1582074902.365177</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1572204012842393</v>
+        <v>0.1215118205240125</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02336391825404988</v>
+        <v>0.02952027834670424</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1017520006.968758</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1467821172.609685</v>
+        <v>1390242725.471718</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1196635649831697</v>
+        <v>0.1570188411194369</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04358586130247202</v>
+        <v>0.03637138701530458</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>733910560.4766572</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2714720039.236823</v>
+        <v>2334821093.789184</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1106944176417696</v>
+        <v>0.105039592366423</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03711306843576601</v>
+        <v>0.03999949710752346</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>20</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1357360023.763466</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3665815575.030241</v>
+        <v>2625026670.635045</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1033291678310092</v>
+        <v>0.1177049550536366</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03112108047424519</v>
+        <v>0.03182538043098587</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1832907793.692686</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2043611317.183387</v>
+        <v>2138084069.990517</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1414319933832645</v>
+        <v>0.1437160386600412</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02523543260361388</v>
+        <v>0.01573942775485971</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1021805753.04758</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2153513842.549156</v>
+        <v>1682902195.409221</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07551741004445693</v>
+        <v>0.06342019655115624</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03122573322082165</v>
+        <v>0.031458208314197</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1076757058.158191</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1573224761.27557</v>
+        <v>2205484548.330466</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1568468968379717</v>
+        <v>0.1681004648925527</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03686055448233983</v>
+        <v>0.03492469536398888</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>786612328.4252648</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3998776260.683635</v>
+        <v>5545058683.216179</v>
       </c>
       <c r="F46" t="n">
-        <v>0.156524928174819</v>
+        <v>0.1649718203216506</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03833552520084915</v>
+        <v>0.05661047654966759</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>28</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1999388099.731448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3862291282.462513</v>
+        <v>5006185985.528149</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1697890538138624</v>
+        <v>0.143388351936475</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03607453763469375</v>
+        <v>0.03619792452240608</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>21</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1931145632.454384</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3888399608.625227</v>
+        <v>3646070973.704273</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07023857159692659</v>
+        <v>0.07002253997859394</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03611996081950158</v>
+        <v>0.03656339553745869</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1944199845.068441</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1846656588.395835</v>
+        <v>1884851304.781752</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1539570786387015</v>
+        <v>0.1190663242807825</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04240928104971552</v>
+        <v>0.02774568578141143</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>923328272.2241106</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3919026952.13926</v>
+        <v>3746104979.756928</v>
       </c>
       <c r="F50" t="n">
-        <v>0.135762688950287</v>
+        <v>0.1751348437390058</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04712982043415563</v>
+        <v>0.0375355197891045</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1959513470.42088</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1180162298.146073</v>
+        <v>1332516252.778482</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1918848541594961</v>
+        <v>0.1651246780078757</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03482336755192788</v>
+        <v>0.03370865306028947</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>590081203.7337441</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4417085850.877082</v>
+        <v>3614681710.327184</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1277224343486206</v>
+        <v>0.1298855647869346</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05012017251570327</v>
+        <v>0.04137809443100254</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>32</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2208542957.282903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3266221338.119289</v>
+        <v>2666051767.332942</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1341982760831276</v>
+        <v>0.1649522156451831</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03301512933354324</v>
+        <v>0.02630556704115702</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>22</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1633110683.019379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4922752492.433343</v>
+        <v>4726004976.496754</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1558546813801333</v>
+        <v>0.156039409612114</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03817717414484462</v>
+        <v>0.03286093575569025</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2461376382.632044</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3642922644.384938</v>
+        <v>4869199011.650529</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1751992161530083</v>
+        <v>0.2223583400299393</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02050708591201401</v>
+        <v>0.02584515083368134</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>21</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1821461281.233976</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1498685870.798948</v>
+        <v>1547134648.174375</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1536708890021536</v>
+        <v>0.1134696859819847</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03870948396850662</v>
+        <v>0.0405129923325522</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>749342977.7615182</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3666697310.77634</v>
+        <v>3126462232.8074</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1292739774961178</v>
+        <v>0.161021351149958</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02470879533515602</v>
+        <v>0.01663711842805984</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>25</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1833348715.686483</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1882034514.874458</v>
+        <v>1745630906.339791</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1467110493088495</v>
+        <v>0.1957980071128173</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03656913461078482</v>
+        <v>0.03053390152603183</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>941017253.627214</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5200961499.571355</v>
+        <v>4366937652.086652</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08729631956870959</v>
+        <v>0.09749033207279213</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04137179944736958</v>
+        <v>0.03934372928357296</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>22</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2600480667.698976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2752653097.033428</v>
+        <v>2847902277.582259</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064129357533815</v>
+        <v>0.2025109033405283</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02989172634742352</v>
+        <v>0.02352910749668939</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1376326592.838722</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2641762869.465521</v>
+        <v>2166968903.21454</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1427930522114617</v>
+        <v>0.1378700654368132</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02760674981081111</v>
+        <v>0.02049905607991438</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1320881448.893948</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1789765859.081342</v>
+        <v>1617188867.784843</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1248176450958268</v>
+        <v>0.1379523567471388</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04478897819332428</v>
+        <v>0.03955434107260121</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>894882956.0053654</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3836960675.06115</v>
+        <v>4072712036.675008</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07607815019773594</v>
+        <v>0.08664011280412746</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03948855151013588</v>
+        <v>0.036227560036859</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>22</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1918480407.105615</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4836953720.310304</v>
+        <v>4475418504.52715</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547932579739725</v>
+        <v>0.1296170601842003</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0322922314850902</v>
+        <v>0.027022006965237</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>24</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2418476954.802702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5588043942.695989</v>
+        <v>5004540299.446386</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1234276013395782</v>
+        <v>0.1183352148650709</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03095107550807746</v>
+        <v>0.02948057864721295</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>28</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2794021895.092366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3542713341.691189</v>
+        <v>5312773168.396906</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1294543201964094</v>
+        <v>0.1133921438683025</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03246169196887252</v>
+        <v>0.03388597411271738</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>23</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1771356619.856308</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3088302939.224936</v>
+        <v>2911007068.866981</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09066085782832005</v>
+        <v>0.09832386847349564</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04424570375855396</v>
+        <v>0.04894023259516643</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1544151480.319602</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4228298542.139964</v>
+        <v>5875996226.590265</v>
       </c>
       <c r="F68" t="n">
-        <v>0.140825720982579</v>
+        <v>0.0976274826261426</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0392586342784134</v>
+        <v>0.05173199030172895</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>25</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2114149280.609164</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2456634122.556499</v>
+        <v>1549278967.155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1606191710083051</v>
+        <v>0.1368920001789674</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03780220351588801</v>
+        <v>0.05691142273162186</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1228317125.180898</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2979630974.722172</v>
+        <v>2622041462.957866</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07039503891900918</v>
+        <v>0.09191868715069654</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03582347187773439</v>
+        <v>0.03000461596139673</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>23</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1489815462.943035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4386263289.694527</v>
+        <v>5055254242.992908</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1742147004864279</v>
+        <v>0.1475660752558372</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0315315637321858</v>
+        <v>0.03087687038651969</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2193131704.646395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2178425293.466949</v>
+        <v>2037653586.53776</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1076840724357939</v>
+        <v>0.07252539734878476</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04757688273969646</v>
+        <v>0.048496759259014</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1089212564.220556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3507672508.612418</v>
+        <v>2845916221.687239</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09450690356074691</v>
+        <v>0.07656432509980859</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05067676028788006</v>
+        <v>0.03558820959620078</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>30</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1753836203.707515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2986370891.573734</v>
+        <v>2451682951.223491</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1353007193078272</v>
+        <v>0.1311475113632866</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03162950818936138</v>
+        <v>0.03088712874025376</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>27</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1493185512.269706</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2285780515.178761</v>
+        <v>2491460316.611821</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1425679761648248</v>
+        <v>0.140128284059982</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03251908262000371</v>
+        <v>0.03567875329150415</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1142890194.928026</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3453606026.817194</v>
+        <v>5097758859.442046</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1041192135930226</v>
+        <v>0.09010128814280335</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02330647848095521</v>
+        <v>0.03387090267580398</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1726802975.088349</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1462947179.931005</v>
+        <v>2243962525.543886</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1787058561013012</v>
+        <v>0.175459955408801</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02496093847604997</v>
+        <v>0.02098846537906973</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>731473572.0552542</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4605070241.628793</v>
+        <v>3871730001.025883</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09703931548707009</v>
+        <v>0.09904191209487019</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0568173138940757</v>
+        <v>0.04107935499761012</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2302535043.132506</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1499879138.359598</v>
+        <v>1694315018.793047</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1530982940493301</v>
+        <v>0.1424952613722204</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02530209798094032</v>
+        <v>0.0275696841243941</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>749939603.2450142</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4086950646.241312</v>
+        <v>4530370139.779051</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06732529437601291</v>
+        <v>0.1068131736775675</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03471547256401908</v>
+        <v>0.03389080305400418</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2043475326.828303</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3188642319.103233</v>
+        <v>3960488910.48542</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09525792339590035</v>
+        <v>0.09805114152007721</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03202574036122247</v>
+        <v>0.02517237310826607</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1594321092.535221</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5074629791.344562</v>
+        <v>4530378462.218677</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1749313230979224</v>
+        <v>0.1431368256152929</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02050048326113932</v>
+        <v>0.02070952992943872</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2537314875.394001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2264248571.966874</v>
+        <v>2215316173.626377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1085482939291555</v>
+        <v>0.1579170341385054</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03461244237173986</v>
+        <v>0.03359594756159446</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1132124304.10903</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2606330367.344488</v>
+        <v>2510743535.41158</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1200312693044081</v>
+        <v>0.1068975318731007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04254218004192452</v>
+        <v>0.04532909708043358</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1303165099.778825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3158277655.873337</v>
+        <v>3209095562.434911</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1376825451803295</v>
+        <v>0.1273440373925752</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05464724739262557</v>
+        <v>0.03930169211036497</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1579138905.46429</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2604321804.460891</v>
+        <v>2497426004.524334</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1534402217471418</v>
+        <v>0.1502309182371431</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01861144885269225</v>
+        <v>0.02736067569491038</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1302161013.810663</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1156862260.213397</v>
+        <v>1274764877.478542</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1422057013102281</v>
+        <v>0.1501641816385182</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04003246863818761</v>
+        <v>0.0291314714280046</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>578431174.5305997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3579768865.285252</v>
+        <v>2767869371.828693</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1077091787345878</v>
+        <v>0.142972086968952</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02839693512630012</v>
+        <v>0.03693785617957009</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1789884520.253836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2424863295.805397</v>
+        <v>3325603427.66974</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1586143652554309</v>
+        <v>0.1406727999007391</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03827709181016963</v>
+        <v>0.03378403657646609</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1212431728.083431</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1522532485.110026</v>
+        <v>1997310035.254705</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08714118633499811</v>
+        <v>0.1355755007177456</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03815984316888844</v>
+        <v>0.05341326134755565</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>761266225.302747</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1512938067.951379</v>
+        <v>1720187492.790659</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1419924843372735</v>
+        <v>0.1362912960745698</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04443031458832944</v>
+        <v>0.04211291462821379</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>756469071.0779969</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2975824847.325617</v>
+        <v>2106985909.80758</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1101936895228442</v>
+        <v>0.082888682453331</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03404512943793729</v>
+        <v>0.03753673223719779</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1487912443.471068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3362057973.803918</v>
+        <v>4975429001.336571</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09672768456997569</v>
+        <v>0.117346229780462</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04106710232730664</v>
+        <v>0.04769670449397937</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>23</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1681029028.669657</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1808822896.483436</v>
+        <v>1581021901.974959</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1450496314946083</v>
+        <v>0.1218036271801904</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03110096115720444</v>
+        <v>0.02915583079078881</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>904411421.6089047</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2471137025.911309</v>
+        <v>2888747990.244592</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0987332722724911</v>
+        <v>0.08694969348531863</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03724039934322028</v>
+        <v>0.05193630307728142</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>18</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1235568551.045862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2202753794.942518</v>
+        <v>2246948468.86353</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09493505123662198</v>
+        <v>0.08565950379645504</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03906531022896388</v>
+        <v>0.04456719368910952</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1101376862.712257</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4281535410.081771</v>
+        <v>5136981443.198561</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1205791864943339</v>
+        <v>0.1095105056047531</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02338858386994806</v>
+        <v>0.02741956372112439</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2140767783.951483</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3493652734.275919</v>
+        <v>3653220871.541496</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1199090090758608</v>
+        <v>0.1030703884688217</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0311097446211607</v>
+        <v>0.02189684084991689</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>21</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1746826385.217956</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2325300536.580232</v>
+        <v>2113742235.212754</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1474114895768908</v>
+        <v>0.1304760194470991</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03051393661233992</v>
+        <v>0.02298065210732952</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1162650205.22892</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3545362993.180619</v>
+        <v>3654533738.917009</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1664181999408999</v>
+        <v>0.1205735089103544</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02147301405179897</v>
+        <v>0.02280315447276889</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1772681530.868609</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3062639178.292581</v>
+        <v>2647327957.170512</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1878894985256438</v>
+        <v>0.1615704176094116</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05673717834932714</v>
+        <v>0.05779273788886898</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1531319686.386672</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_78.xlsx
+++ b/output/fit_clients/fit_round_78.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1826006390.419475</v>
+        <v>1853247417.109393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07060803243495749</v>
+        <v>0.09815590139033721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04073055496769395</v>
+        <v>0.0418269642328087</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2074768190.139479</v>
+        <v>2346026447.90781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1299276750335641</v>
+        <v>0.1402469847152817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0391353741647306</v>
+        <v>0.03064746800587197</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4019754929.053905</v>
+        <v>4137321833.187034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1378992285417608</v>
+        <v>0.1302659128882389</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02968155599290464</v>
+        <v>0.03416105362289359</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3362673221.522346</v>
+        <v>3405280497.146165</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09241495690140643</v>
+        <v>0.06891732724886071</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05052937484133098</v>
+        <v>0.03341971071294084</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2070074322.781898</v>
+        <v>2769829210.036565</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1340668475519871</v>
+        <v>0.1381247649960972</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04823536016321379</v>
+        <v>0.03794009680264934</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2141992474.079451</v>
+        <v>2247881846.087033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06661753502616512</v>
+        <v>0.08287555654636505</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03277631739052618</v>
+        <v>0.03822827035304414</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3491811988.576072</v>
+        <v>3710271213.300567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1959895209789267</v>
+        <v>0.1897565007593301</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02355725722346405</v>
+        <v>0.02821083085172561</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1579564363.076495</v>
+        <v>2134688734.243305</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1959862061188851</v>
+        <v>0.1762491416772038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03313232334110275</v>
+        <v>0.02614340891969989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5659338241.380493</v>
+        <v>4375873053.749716</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1753165123058862</v>
+        <v>0.1350783640203508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04290725458785103</v>
+        <v>0.05389390129315305</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3480306688.615878</v>
+        <v>3776169674.220572</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1305186783281537</v>
+        <v>0.1404808270239166</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03148031114978811</v>
+        <v>0.03590370462121484</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3278338593.651061</v>
+        <v>3066081227.406597</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1567954229887069</v>
+        <v>0.1333105013725546</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04819673184964711</v>
+        <v>0.04826430800084733</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3959231735.348669</v>
+        <v>5223327343.324573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06603661060461287</v>
+        <v>0.1008356112157363</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02457723164672</v>
+        <v>0.01955959355988019</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3736402430.566882</v>
+        <v>3711071441.386041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1211855120310932</v>
+        <v>0.1211615228145372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03985724888115309</v>
+        <v>0.03561429374017327</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1386960896.722616</v>
+        <v>1306932642.417219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1088711428423247</v>
+        <v>0.08054869811924835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03638092647991666</v>
+        <v>0.04524892035854138</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2092208595.217715</v>
+        <v>1837604646.940738</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1163560826906098</v>
+        <v>0.1007443936412951</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03233144435583874</v>
+        <v>0.04415502038317717</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3462057786.015123</v>
+        <v>3956789575.827168</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1113460332124676</v>
+        <v>0.1055283546128387</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03761733486275001</v>
+        <v>0.03885454521892557</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3548747245.193457</v>
+        <v>3761415205.124626</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1700029141595718</v>
+        <v>0.1582564060174394</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02941076103192138</v>
+        <v>0.02288662805355936</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1323283629.356742</v>
+        <v>1110591179.576495</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1522031600248716</v>
+        <v>0.1583707080505875</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02462978368819948</v>
+        <v>0.02331498543088039</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1824273753.873462</v>
+        <v>2326413695.317202</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1091464731147031</v>
+        <v>0.0989634372783382</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02168180246936051</v>
+        <v>0.02587815687813321</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2578258189.777369</v>
+        <v>2375514561.070079</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09209179152411108</v>
+        <v>0.08502387606327823</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03485348792545301</v>
+        <v>0.04610581201585294</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3341808168.938395</v>
+        <v>2874483154.190797</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1420773720825271</v>
+        <v>0.1248184712033841</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03975337839104353</v>
+        <v>0.05514434348349224</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>962039129.410563</v>
+        <v>981284977.4792166</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1538177891505216</v>
+        <v>0.1841608565337116</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04439646756200887</v>
+        <v>0.04860732713575613</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3915250916.82618</v>
+        <v>2503038737.527628</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09416178564652242</v>
+        <v>0.1092838885711022</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02770201205616112</v>
+        <v>0.03664302224735425</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1165807583.661489</v>
+        <v>1065316039.710532</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09886061148741179</v>
+        <v>0.1184259897701767</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0297354063744719</v>
+        <v>0.02727739177621795</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>888477973.398645</v>
+        <v>1214838336.389112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08107960144239341</v>
+        <v>0.1014879088671898</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03899411461860655</v>
+        <v>0.02532513766158195</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3062850260.479867</v>
+        <v>3422574546.109576</v>
       </c>
       <c r="F27" t="n">
-        <v>0.14289901031265</v>
+        <v>0.09716797017960231</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01665745386794643</v>
+        <v>0.0230468824940229</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3554980536.889231</v>
+        <v>2912564607.509572</v>
       </c>
       <c r="F28" t="n">
-        <v>0.143848183642676</v>
+        <v>0.139744205320973</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03715392320369679</v>
+        <v>0.04291871925029468</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4520824568.087756</v>
+        <v>5070420770.865937</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1322048704618286</v>
+        <v>0.1007181902175415</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04177816628127028</v>
+        <v>0.02908995388314023</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1692619542.453976</v>
+        <v>2227518587.450272</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08802939826219786</v>
+        <v>0.08631891703748198</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0392588382962822</v>
+        <v>0.02492743854101705</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1436111627.157814</v>
+        <v>1218290641.390946</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0694444883576487</v>
+        <v>0.1059182751146872</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03185246367441906</v>
+        <v>0.04799281763732544</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1777038400.28109</v>
+        <v>1659090532.2036</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08251684742058082</v>
+        <v>0.1171962061846323</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02539628876105891</v>
+        <v>0.03266545322190477</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2627074127.35961</v>
+        <v>2441149649.456198</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1625405408014786</v>
+        <v>0.1359947437180188</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05862709022199918</v>
+        <v>0.04803716460167829</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1017872530.885423</v>
+        <v>1196316978.778656</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1032588434563034</v>
+        <v>0.0803981144758236</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0195987617096711</v>
+        <v>0.0263125517325642</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1110298026.075869</v>
+        <v>831331407.1674751</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09850680033774015</v>
+        <v>0.09587375362706868</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03387829304175592</v>
+        <v>0.03512060093546666</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2258585727.701309</v>
+        <v>3006248042.024718</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1513204558159794</v>
+        <v>0.1292932473496549</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02683892887773487</v>
+        <v>0.01950338202765608</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2099551211.527785</v>
+        <v>2002546201.163446</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09025518956632265</v>
+        <v>0.07068394003626494</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04134795222126232</v>
+        <v>0.03763154132156475</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1650996332.4697</v>
+        <v>1805309240.462657</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08179480883652485</v>
+        <v>0.07961023921014716</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0294934103161677</v>
+        <v>0.03821908032720253</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1582074902.365177</v>
+        <v>1457648118.858475</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1215118205240125</v>
+        <v>0.1736806478418806</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02952027834670424</v>
+        <v>0.02943341119077341</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1390242725.471718</v>
+        <v>1328042907.92526</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1570188411194369</v>
+        <v>0.1145019485201789</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03637138701530458</v>
+        <v>0.03952191362123268</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2334821093.789184</v>
+        <v>2919100127.560829</v>
       </c>
       <c r="F41" t="n">
-        <v>0.105039592366423</v>
+        <v>0.1422072582470711</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03999949710752346</v>
+        <v>0.03115089466500258</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2625026670.635045</v>
+        <v>3711205540.142582</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1177049550536366</v>
+        <v>0.07876796101944712</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03182538043098587</v>
+        <v>0.03333667186660261</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2138084069.990517</v>
+        <v>2321799390.450474</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1437160386600412</v>
+        <v>0.1886218488292005</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01573942775485971</v>
+        <v>0.02243983478487385</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1682902195.409221</v>
+        <v>2240077355.987624</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06342019655115624</v>
+        <v>0.06490902963370429</v>
       </c>
       <c r="G44" t="n">
-        <v>0.031458208314197</v>
+        <v>0.03246962546883237</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2205484548.330466</v>
+        <v>1995211615.64344</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1681004648925527</v>
+        <v>0.1591472164580587</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03492469536398888</v>
+        <v>0.05469607200141069</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5545058683.216179</v>
+        <v>5484079502.289556</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1649718203216506</v>
+        <v>0.1516445972956484</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05661047654966759</v>
+        <v>0.05931530138996199</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5006185985.528149</v>
+        <v>4670284765.447454</v>
       </c>
       <c r="F47" t="n">
-        <v>0.143388351936475</v>
+        <v>0.1520674860663417</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03619792452240608</v>
+        <v>0.05010414603783212</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3646070973.704273</v>
+        <v>3750513242.373927</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07002253997859394</v>
+        <v>0.0838657717656221</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03656339553745869</v>
+        <v>0.02397892164146585</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1884851304.781752</v>
+        <v>1306720435.642247</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1190663242807825</v>
+        <v>0.1962372955138127</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02774568578141143</v>
+        <v>0.04275276361678936</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3746104979.756928</v>
+        <v>3688328876.85948</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1751348437390058</v>
+        <v>0.1432219396726752</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0375355197891045</v>
+        <v>0.03965221842595001</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1332516252.778482</v>
+        <v>1328580627.353636</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1651246780078757</v>
+        <v>0.1218973081794749</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03370865306028947</v>
+        <v>0.03878465020594202</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3614681710.327184</v>
+        <v>4105844293.028881</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1298855647869346</v>
+        <v>0.08748889007539958</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04137809443100254</v>
+        <v>0.04152626278514161</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2666051767.332942</v>
+        <v>3573484460.842821</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1649522156451831</v>
+        <v>0.1440488537996129</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02630556704115702</v>
+        <v>0.02988165177903017</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4726004976.496754</v>
+        <v>4211310136.688292</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156039409612114</v>
+        <v>0.1234092548347804</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03286093575569025</v>
+        <v>0.0334727952920835</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4869199011.650529</v>
+        <v>3457370578.401276</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2223583400299393</v>
+        <v>0.2110535313607575</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02584515083368134</v>
+        <v>0.02354586358640545</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1547134648.174375</v>
+        <v>1786783844.16132</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1134696859819847</v>
+        <v>0.1574311610545862</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0405129923325522</v>
+        <v>0.04137587037320225</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3126462232.8074</v>
+        <v>3425166286.640968</v>
       </c>
       <c r="F57" t="n">
-        <v>0.161021351149958</v>
+        <v>0.1518200709071174</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01663711842805984</v>
+        <v>0.02522849158724615</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1745630906.339791</v>
+        <v>1450889014.317006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1957980071128173</v>
+        <v>0.1847638933333662</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03053390152603183</v>
+        <v>0.02625034890952597</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4366937652.086652</v>
+        <v>3828688360.955311</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09749033207279213</v>
+        <v>0.08325724628767306</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03934372928357296</v>
+        <v>0.03876730742806872</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2847902277.582259</v>
+        <v>2742272932.543237</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2025109033405283</v>
+        <v>0.1876243346451329</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02352910749668939</v>
+        <v>0.0298886283447267</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2166968903.21454</v>
+        <v>2639936403.16764</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1378700654368132</v>
+        <v>0.13285187013762</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02049905607991438</v>
+        <v>0.02734118746050163</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1617188867.784843</v>
+        <v>1827924496.388321</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1379523567471388</v>
+        <v>0.1660954882814071</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03955434107260121</v>
+        <v>0.04988516395071563</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4072712036.675008</v>
+        <v>5267376230.04695</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08664011280412746</v>
+        <v>0.09091075243494726</v>
       </c>
       <c r="G63" t="n">
-        <v>0.036227560036859</v>
+        <v>0.04590928202433729</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4475418504.52715</v>
+        <v>4112182370.069653</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1296170601842003</v>
+        <v>0.1191813169762757</v>
       </c>
       <c r="G64" t="n">
-        <v>0.027022006965237</v>
+        <v>0.03066334538380889</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5004540299.446386</v>
+        <v>5985971095.186471</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1183352148650709</v>
+        <v>0.1225033351034575</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02948057864721295</v>
+        <v>0.02926585982273978</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5312773168.396906</v>
+        <v>4335092555.550139</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1133921438683025</v>
+        <v>0.12937853956311</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03388597411271738</v>
+        <v>0.0362818722938583</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2911007068.866981</v>
+        <v>3383453793.06558</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09832386847349564</v>
+        <v>0.08038260248108654</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04894023259516643</v>
+        <v>0.05050711373811866</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5875996226.590265</v>
+        <v>5541041507.824586</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0976274826261426</v>
+        <v>0.1036878051043788</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05173199030172895</v>
+        <v>0.04970483644844156</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1549278967.155</v>
+        <v>1672938505.57977</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1368920001789674</v>
+        <v>0.1697981678440733</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05691142273162186</v>
+        <v>0.04470136326721504</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2622041462.957866</v>
+        <v>3663167823.932772</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09191868715069654</v>
+        <v>0.07817003751775077</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03000461596139673</v>
+        <v>0.03611935427208133</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5055254242.992908</v>
+        <v>5176611778.935458</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1475660752558372</v>
+        <v>0.1231607942704599</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03087687038651969</v>
+        <v>0.02065566616670137</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2037653586.53776</v>
+        <v>2240052548.394324</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07252539734878476</v>
+        <v>0.06955089604731877</v>
       </c>
       <c r="G72" t="n">
-        <v>0.048496759259014</v>
+        <v>0.03939273036155412</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2845916221.687239</v>
+        <v>2774200336.362007</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07656432509980859</v>
+        <v>0.08100953232549631</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03558820959620078</v>
+        <v>0.03800340300291925</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2451682951.223491</v>
+        <v>3226858840.779866</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1311475113632866</v>
+        <v>0.1244619281065436</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03088712874025376</v>
+        <v>0.02567037884821043</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2491460316.611821</v>
+        <v>2437352441.195361</v>
       </c>
       <c r="F75" t="n">
-        <v>0.140128284059982</v>
+        <v>0.1338020935321773</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03567875329150415</v>
+        <v>0.03674185938030355</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5097758859.442046</v>
+        <v>3885755354.379504</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09010128814280335</v>
+        <v>0.1092057808781796</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03387090267580398</v>
+        <v>0.02344186857507989</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2243962525.543886</v>
+        <v>1753843922.972666</v>
       </c>
       <c r="F77" t="n">
-        <v>0.175459955408801</v>
+        <v>0.1648256311146218</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02098846537906973</v>
+        <v>0.02196909979036467</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3871730001.025883</v>
+        <v>3185391557.312724</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09904191209487019</v>
+        <v>0.1225026152182998</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04107935499761012</v>
+        <v>0.04875430086694872</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1694315018.793047</v>
+        <v>1916793713.355103</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1424952613722204</v>
+        <v>0.1281534115497316</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0275696841243941</v>
+        <v>0.03991771523594159</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4530370139.779051</v>
+        <v>4343772858.041314</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1068131736775675</v>
+        <v>0.1004770478125352</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03389080305400418</v>
+        <v>0.03126622998827432</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3960488910.48542</v>
+        <v>3670755183.854371</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09805114152007721</v>
+        <v>0.1116406891969287</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02517237310826607</v>
+        <v>0.02437680429345417</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4530378462.218677</v>
+        <v>4824340596.554752</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1431368256152929</v>
+        <v>0.1381234989973898</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02070952992943872</v>
+        <v>0.02575400886328214</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2215316173.626377</v>
+        <v>1532090352.878832</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1579170341385054</v>
+        <v>0.1379025265152292</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03359594756159446</v>
+        <v>0.03583952931567189</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2510743535.41158</v>
+        <v>1673734564.03679</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1068975318731007</v>
+        <v>0.08268364226914415</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04532909708043358</v>
+        <v>0.04647929645089434</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3209095562.434911</v>
+        <v>2639145740.841485</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1273440373925752</v>
+        <v>0.1262928127969971</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03930169211036497</v>
+        <v>0.04132739501284998</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2497426004.524334</v>
+        <v>1865491519.678517</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1502309182371431</v>
+        <v>0.173346361859725</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02736067569491038</v>
+        <v>0.02052497434176852</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1274764877.478542</v>
+        <v>985001892.3650584</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1501641816385182</v>
+        <v>0.1368825581051112</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0291314714280046</v>
+        <v>0.03439080695441785</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2767869371.828693</v>
+        <v>3000339389.716226</v>
       </c>
       <c r="F88" t="n">
-        <v>0.142972086968952</v>
+        <v>0.1666835856333563</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03693785617957009</v>
+        <v>0.03436096013333448</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3325603427.66974</v>
+        <v>2472446961.102106</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1406727999007391</v>
+        <v>0.1315243097203643</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03378403657646609</v>
+        <v>0.02737952788993209</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1997310035.254705</v>
+        <v>1750712578.961669</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1355755007177456</v>
+        <v>0.1158287066046363</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05341326134755565</v>
+        <v>0.04435505514107098</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1720187492.790659</v>
+        <v>1699205423.779818</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1362912960745698</v>
+        <v>0.167386808227779</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04211291462821379</v>
+        <v>0.04391668629874893</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2106985909.80758</v>
+        <v>2079270315.653258</v>
       </c>
       <c r="F92" t="n">
-        <v>0.082888682453331</v>
+        <v>0.07708597328225873</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03753673223719779</v>
+        <v>0.03575091445919059</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4975429001.336571</v>
+        <v>3681712533.058042</v>
       </c>
       <c r="F93" t="n">
-        <v>0.117346229780462</v>
+        <v>0.1187660818526635</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04769670449397937</v>
+        <v>0.0421851094294493</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1581021901.974959</v>
+        <v>2359614102.396039</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1218036271801904</v>
+        <v>0.1201559119460097</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02915583079078881</v>
+        <v>0.04102771887800921</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2888747990.244592</v>
+        <v>3156932716.918933</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08694969348531863</v>
+        <v>0.1031074986977637</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05193630307728142</v>
+        <v>0.05111235055232405</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2246948468.86353</v>
+        <v>1841049249.319233</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08565950379645504</v>
+        <v>0.1198612907242051</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04456719368910952</v>
+        <v>0.03604550807911504</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5136981443.198561</v>
+        <v>5270116561.380375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1095105056047531</v>
+        <v>0.1075555151255569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02741956372112439</v>
+        <v>0.02846979142229602</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3653220871.541496</v>
+        <v>3269935398.935864</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1030703884688217</v>
+        <v>0.1046475637670599</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02189684084991689</v>
+        <v>0.02097279677505703</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2113742235.212754</v>
+        <v>2707136911.610605</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1304760194470991</v>
+        <v>0.1309847300029635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02298065210732952</v>
+        <v>0.02845460611635416</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3654533738.917009</v>
+        <v>3667598630.107087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1205735089103544</v>
+        <v>0.1682491976935599</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02280315447276889</v>
+        <v>0.02257230598162194</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2647327957.170512</v>
+        <v>3378799832.880017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1615704176094116</v>
+        <v>0.2118118126553505</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05779273788886898</v>
+        <v>0.05082043761895214</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_78.xlsx
+++ b/output/fit_clients/fit_round_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1853247417.109393</v>
+        <v>1804454959.327236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09815590139033721</v>
+        <v>0.1028683645936849</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0418269642328087</v>
+        <v>0.03349911294929639</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2346026447.90781</v>
+        <v>1688825907.199741</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1402469847152817</v>
+        <v>0.1539889216138032</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03064746800587197</v>
+        <v>0.04721986364769084</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4137321833.187034</v>
+        <v>3549670865.670773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1302659128882389</v>
+        <v>0.1541706016137876</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03416105362289359</v>
+        <v>0.03692934933529882</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51</v>
+      </c>
+      <c r="J4" t="n">
+        <v>77</v>
+      </c>
+      <c r="K4" t="n">
+        <v>158.2197750052007</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3405280497.146165</v>
+        <v>3103200727.330333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06891732724886071</v>
+        <v>0.06895752803809452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03341971071294084</v>
+        <v>0.03118127136861761</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2769829210.036565</v>
+        <v>1969800540.763523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1381247649960972</v>
+        <v>0.1467334844283637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03794009680264934</v>
+        <v>0.04598791911474794</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2247881846.087033</v>
+        <v>2855207694.551859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08287555654636505</v>
+        <v>0.08366461941069182</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03822827035304414</v>
+        <v>0.03013044637884333</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3710271213.300567</v>
+        <v>2739709064.790519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1897565007593301</v>
+        <v>0.1951813088763513</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02821083085172561</v>
+        <v>0.03269192027867131</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>76</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2134688734.243305</v>
+        <v>1934759227.292322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1762491416772038</v>
+        <v>0.1335324639424562</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02614340891969989</v>
+        <v>0.03665699332649844</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4375873053.749716</v>
+        <v>5186737901.525389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1350783640203508</v>
+        <v>0.1642881717019219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05389390129315305</v>
+        <v>0.03323789014764333</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78</v>
+      </c>
+      <c r="K10" t="n">
+        <v>200.8293771676751</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3776169674.220572</v>
+        <v>3148222856.137642</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1404808270239166</v>
+        <v>0.1722812826982674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03590370462121484</v>
+        <v>0.04917577506150953</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>76</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3066081227.406597</v>
+        <v>2765103878.24025</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1333105013725546</v>
+        <v>0.1628619966256352</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04826430800084733</v>
+        <v>0.04823108755274082</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5223327343.324573</v>
+        <v>3723264862.788103</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1008356112157363</v>
+        <v>0.09865080985051315</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01955959355988019</v>
+        <v>0.02569579828954777</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="n">
+        <v>77</v>
+      </c>
+      <c r="K13" t="n">
+        <v>169.7623757908739</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3711071441.386041</v>
+        <v>3194452275.121634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1211615228145372</v>
+        <v>0.1878387962847742</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03561429374017327</v>
+        <v>0.04032971297982124</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>77</v>
+      </c>
+      <c r="K14" t="n">
+        <v>122.2975805238121</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1306932642.417219</v>
+        <v>1259537138.84085</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08054869811924835</v>
+        <v>0.09329797231946854</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04524892035854138</v>
+        <v>0.03712607404919283</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1837604646.940738</v>
+        <v>2643629351.296019</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007443936412951</v>
+        <v>0.1127024365777967</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04415502038317717</v>
+        <v>0.03781871944849454</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3956789575.827168</v>
+        <v>4313581993.29353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1055283546128387</v>
+        <v>0.1448380391831356</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03885454521892557</v>
+        <v>0.04796788547369547</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37</v>
+      </c>
+      <c r="J17" t="n">
+        <v>78</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3761415205.124626</v>
+        <v>3561415446.685419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1582564060174394</v>
+        <v>0.1228051845566044</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02288662805355936</v>
+        <v>0.03142512782816725</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>78</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1110591179.576495</v>
+        <v>1070762244.800985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1583707080505875</v>
+        <v>0.1847770140790373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02331498543088039</v>
+        <v>0.01828784929691736</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2326413695.317202</v>
+        <v>2442863293.900849</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0989634372783382</v>
+        <v>0.121669607771591</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02587815687813321</v>
+        <v>0.02262783436103568</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2375514561.070079</v>
+        <v>2278496045.428479</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08502387606327823</v>
+        <v>0.06722089834159355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04610581201585294</v>
+        <v>0.02824229309042776</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2874483154.190797</v>
+        <v>2661173459.743957</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1248184712033841</v>
+        <v>0.1083043671173545</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05514434348349224</v>
+        <v>0.03569755010098679</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>981284977.4792166</v>
+        <v>1001867573.819568</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1841608565337116</v>
+        <v>0.12882324505447</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04860732713575613</v>
+        <v>0.0364601061608314</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2503038737.527628</v>
+        <v>3354533229.978442</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1092838885711022</v>
+        <v>0.09881221120005655</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03664302224735425</v>
+        <v>0.03278262504404982</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>77</v>
+      </c>
+      <c r="K24" t="n">
+        <v>131.2948806167726</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1065316039.710532</v>
+        <v>1026245209.428783</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1184259897701767</v>
+        <v>0.1013402135624397</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02727739177621795</v>
+        <v>0.02903360058573813</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1214838336.389112</v>
+        <v>1061158762.618848</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1014879088671898</v>
+        <v>0.09617845885355564</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02532513766158195</v>
+        <v>0.031573940301783</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3422574546.109576</v>
+        <v>4272319005.33244</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09716797017960231</v>
+        <v>0.1530910513173435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0230468824940229</v>
+        <v>0.02410474046983163</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>31</v>
+      </c>
+      <c r="J27" t="n">
+        <v>77</v>
+      </c>
+      <c r="K27" t="n">
+        <v>150.4583548100231</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2912564607.509572</v>
+        <v>3566655898.506684</v>
       </c>
       <c r="F28" t="n">
-        <v>0.139744205320973</v>
+        <v>0.1097436820823841</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04291871925029468</v>
+        <v>0.04999027758345761</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>78</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5070420770.865937</v>
+        <v>5882276620.433174</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1007181902175415</v>
+        <v>0.1484428052758574</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02908995388314023</v>
+        <v>0.04491701399455984</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>72</v>
+      </c>
+      <c r="J29" t="n">
+        <v>78</v>
+      </c>
+      <c r="K29" t="n">
+        <v>209.7522944750012</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2227518587.450272</v>
+        <v>1676565959.923257</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08631891703748198</v>
+        <v>0.09146669679438527</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02492743854101705</v>
+        <v>0.03307686387087976</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1218290641.390946</v>
+        <v>1074614353.062276</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1059182751146872</v>
+        <v>0.1107038882244586</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04799281763732544</v>
+        <v>0.03999317826039661</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1659090532.2036</v>
+        <v>1874173808.591091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1171962061846323</v>
+        <v>0.1200632226626738</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03266545322190477</v>
+        <v>0.02827042544373129</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2441149649.456198</v>
+        <v>2115256010.244515</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1359947437180188</v>
+        <v>0.2004448283612908</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04803716460167829</v>
+        <v>0.04195429863025042</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1196316978.778656</v>
+        <v>1025785794.810804</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0803981144758236</v>
+        <v>0.08696675597074718</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0263125517325642</v>
+        <v>0.01816991916433375</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>831331407.1674751</v>
+        <v>861942127.3796796</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09587375362706868</v>
+        <v>0.1118073681298665</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03512060093546666</v>
+        <v>0.03874601056404647</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3006248042.024718</v>
+        <v>2865911665.223361</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1292932473496549</v>
+        <v>0.108840036408571</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01950338202765608</v>
+        <v>0.02495421266840101</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2002546201.163446</v>
+        <v>2864958702.163605</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07068394003626494</v>
+        <v>0.1032143731209087</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03763154132156475</v>
+        <v>0.03878975218916491</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1805309240.462657</v>
+        <v>1981252724.901562</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07961023921014716</v>
+        <v>0.1012562874467812</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03821908032720253</v>
+        <v>0.02803694732823934</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1457648118.858475</v>
+        <v>1976209867.14914</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1736806478418806</v>
+        <v>0.1268565973304774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02943341119077341</v>
+        <v>0.02109803213652803</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1328042907.92526</v>
+        <v>1378555139.041764</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1145019485201789</v>
+        <v>0.1569418862468563</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03952191362123268</v>
+        <v>0.05676623584746666</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2919100127.560829</v>
+        <v>2418445179.882491</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1422072582470711</v>
+        <v>0.1415590564975491</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03115089466500258</v>
+        <v>0.04644938000941582</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3711205540.142582</v>
+        <v>4217177521.684594</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07876796101944712</v>
+        <v>0.1068631374763732</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03333667186660261</v>
+        <v>0.04286228877154446</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>77</v>
+      </c>
+      <c r="K42" t="n">
+        <v>177.8134256272955</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2321799390.450474</v>
+        <v>2939335833.042962</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1886218488292005</v>
+        <v>0.1479738184055688</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02243983478487385</v>
+        <v>0.02223793470522697</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2240077355.987624</v>
+        <v>1873967606.644885</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06490902963370429</v>
+        <v>0.08157126280241417</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03246962546883237</v>
+        <v>0.02790179976946172</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1995211615.64344</v>
+        <v>2540542855.899584</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1591472164580587</v>
+        <v>0.123148079301322</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05469607200141069</v>
+        <v>0.04600616244089508</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5484079502.289556</v>
+        <v>4405579034.962447</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1516445972956484</v>
+        <v>0.1766105917036615</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05931530138996199</v>
+        <v>0.04148138328123914</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>45</v>
+      </c>
+      <c r="J46" t="n">
+        <v>78</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4670284765.447454</v>
+        <v>4966237841.590401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1520674860663417</v>
+        <v>0.1274862801206553</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05010414603783212</v>
+        <v>0.04476649803944241</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>35</v>
+      </c>
+      <c r="J47" t="n">
+        <v>77</v>
+      </c>
+      <c r="K47" t="n">
+        <v>150.531402290611</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3750513242.373927</v>
+        <v>3977878489.715261</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0838657717656221</v>
+        <v>0.1044795380109759</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02397892164146585</v>
+        <v>0.03689277458901621</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29</v>
+      </c>
+      <c r="J48" t="n">
+        <v>77</v>
+      </c>
+      <c r="K48" t="n">
+        <v>182.4723974856997</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1306720435.642247</v>
+        <v>1594341287.075896</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1962372955138127</v>
+        <v>0.1417866897566131</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04275276361678936</v>
+        <v>0.04208569866017541</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3688328876.85948</v>
+        <v>3298254746.199585</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1432219396726752</v>
+        <v>0.1426611475280874</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03965221842595001</v>
+        <v>0.04367073945590702</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>74</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1328580627.353636</v>
+        <v>1168279688.832283</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1218973081794749</v>
+        <v>0.1602571068274334</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03878465020594202</v>
+        <v>0.03352452501279817</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4105844293.028881</v>
+        <v>3618670295.969121</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08748889007539958</v>
+        <v>0.09451629428191947</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04152626278514161</v>
+        <v>0.05394310477924089</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>60</v>
+      </c>
+      <c r="J52" t="n">
+        <v>78</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3573484460.842821</v>
+        <v>2904425424.505363</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1440488537996129</v>
+        <v>0.1700584854373928</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02988165177903017</v>
+        <v>0.03268929425225905</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4211310136.688292</v>
+        <v>4321959860.904775</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1234092548347804</v>
+        <v>0.1448734707743032</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0334727952920835</v>
+        <v>0.05171049400372144</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>78</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3457370578.401276</v>
+        <v>3452388049.237277</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2110535313607575</v>
+        <v>0.1769328682391244</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02354586358640545</v>
+        <v>0.02810773748002365</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>36</v>
+      </c>
+      <c r="J55" t="n">
+        <v>77</v>
+      </c>
+      <c r="K55" t="n">
+        <v>132.8461589594904</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1786783844.16132</v>
+        <v>1410427201.971418</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1574311610545862</v>
+        <v>0.1160749425234736</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04137587037320225</v>
+        <v>0.03577956469212079</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3425166286.640968</v>
+        <v>4125085776.839983</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1518200709071174</v>
+        <v>0.1643962482720671</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02522849158724615</v>
+        <v>0.01742449925046406</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>78</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1450889014.317006</v>
+        <v>1621218255.553141</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1847638933333662</v>
+        <v>0.1531405767955827</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02625034890952597</v>
+        <v>0.03363357523636799</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3828688360.955311</v>
+        <v>5221893995.947085</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08325724628767306</v>
+        <v>0.1202329550148773</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03876730742806872</v>
+        <v>0.04812861512938604</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>38</v>
+      </c>
+      <c r="J59" t="n">
+        <v>77</v>
+      </c>
+      <c r="K59" t="n">
+        <v>160.1676818214867</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2742272932.543237</v>
+        <v>2389112551.10631</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1876243346451329</v>
+        <v>0.1604868210860694</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0298886283447267</v>
+        <v>0.02098691378754732</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2639936403.16764</v>
+        <v>3247851157.7117</v>
       </c>
       <c r="F61" t="n">
-        <v>0.13285187013762</v>
+        <v>0.1228065428997821</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02734118746050163</v>
+        <v>0.02088553413514331</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1827924496.388321</v>
+        <v>1474691594.230116</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1660954882814071</v>
+        <v>0.1847246994593264</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04988516395071563</v>
+        <v>0.03796235991912406</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5267376230.04695</v>
+        <v>4120170800.288765</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09091075243494726</v>
+        <v>0.07531897904128769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04590928202433729</v>
+        <v>0.03972326051160615</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>38</v>
+      </c>
+      <c r="J63" t="n">
+        <v>78</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4112182370.069653</v>
+        <v>5344502262.399696</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1191813169762757</v>
+        <v>0.1842735381649595</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03066334538380889</v>
+        <v>0.03075826206844274</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>38</v>
+      </c>
+      <c r="J64" t="n">
+        <v>78</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5985971095.186471</v>
+        <v>4290683132.896739</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225033351034575</v>
+        <v>0.1714558369802055</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02926585982273978</v>
+        <v>0.02822076192066275</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>62</v>
+      </c>
+      <c r="J65" t="n">
+        <v>78</v>
+      </c>
+      <c r="K65" t="n">
+        <v>183.5810367993019</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4335092555.550139</v>
+        <v>3906561384.723217</v>
       </c>
       <c r="F66" t="n">
-        <v>0.12937853956311</v>
+        <v>0.1200265097629377</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0362818722938583</v>
+        <v>0.04728065162350425</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>38</v>
+      </c>
+      <c r="J66" t="n">
+        <v>78</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3383453793.06558</v>
+        <v>3098424787.91007</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08038260248108654</v>
+        <v>0.0879581452390918</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05050711373811866</v>
+        <v>0.05046122275837223</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5541041507.824586</v>
+        <v>3681121114.490143</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1036878051043788</v>
+        <v>0.1134837972099811</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04970483644844156</v>
+        <v>0.03898675844555334</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>39</v>
+      </c>
+      <c r="J68" t="n">
+        <v>77</v>
+      </c>
+      <c r="K68" t="n">
+        <v>159.9670565648462</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1672938505.57977</v>
+        <v>1593636953.322521</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1697981678440733</v>
+        <v>0.1641138884253941</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04470136326721504</v>
+        <v>0.04589672274722821</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3663167823.932772</v>
+        <v>3630929257.179466</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07817003751775077</v>
+        <v>0.08012692364891363</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03611935427208133</v>
+        <v>0.0349447958811453</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>78</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5176611778.935458</v>
+        <v>3797302858.623042</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1231607942704599</v>
+        <v>0.1639522581015353</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02065566616670137</v>
+        <v>0.02724408376008928</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>65</v>
+      </c>
+      <c r="J71" t="n">
+        <v>78</v>
+      </c>
+      <c r="K71" t="n">
+        <v>185.094494804803</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2240052548.394324</v>
+        <v>1987334249.564351</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06955089604731877</v>
+        <v>0.0656212444460703</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03939273036155412</v>
+        <v>0.03871512098461552</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2774200336.362007</v>
+        <v>3352295591.323427</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08100953232549631</v>
+        <v>0.09059215777472404</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03800340300291925</v>
+        <v>0.04777800452232737</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3226858840.779866</v>
+        <v>2692169082.885552</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1244619281065436</v>
+        <v>0.1827832246089751</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02567037884821043</v>
+        <v>0.02862864134232167</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>77</v>
+      </c>
+      <c r="K74" t="n">
+        <v>90.98355559179244</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2437352441.195361</v>
+        <v>2447185822.539632</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1338020935321773</v>
+        <v>0.1306472564662065</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03674185938030355</v>
+        <v>0.03212866435143907</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3885755354.379504</v>
+        <v>3969831955.499754</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1092057808781796</v>
+        <v>0.1157677427938711</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02344186857507989</v>
+        <v>0.02563669308753995</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36</v>
+      </c>
+      <c r="J76" t="n">
+        <v>77</v>
+      </c>
+      <c r="K76" t="n">
+        <v>146.3997070944998</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753843922.972666</v>
+        <v>1879988264.086729</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1648256311146218</v>
+        <v>0.128771231331199</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02196909979036467</v>
+        <v>0.02613190992990842</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3185391557.312724</v>
+        <v>3753729026.334808</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1225026152182998</v>
+        <v>0.1300863045569044</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04875430086694872</v>
+        <v>0.0564073216745507</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>38</v>
+      </c>
+      <c r="J78" t="n">
+        <v>77</v>
+      </c>
+      <c r="K78" t="n">
+        <v>183.543170004336</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1916793713.355103</v>
+        <v>1753583553.648099</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1281534115497316</v>
+        <v>0.1223376432206446</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03991771523594159</v>
+        <v>0.0258093940498932</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4343772858.041314</v>
+        <v>4375501662.212943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1004770478125352</v>
+        <v>0.09234047086979399</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03126622998827432</v>
+        <v>0.03531164088957352</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>37</v>
+      </c>
+      <c r="J80" t="n">
+        <v>78</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3670755183.854371</v>
+        <v>3498964438.635156</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1116406891969287</v>
+        <v>0.1070583267301392</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02437680429345417</v>
+        <v>0.02823988675308367</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>35</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4824340596.554752</v>
+        <v>4866901303.579543</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1381234989973898</v>
+        <v>0.1353836268552739</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02575400886328214</v>
+        <v>0.02240631231103207</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>48</v>
+      </c>
+      <c r="J82" t="n">
+        <v>78</v>
+      </c>
+      <c r="K82" t="n">
+        <v>188.4064351172092</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1532090352.878832</v>
+        <v>2135158403.26211</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1379025265152292</v>
+        <v>0.1308635233866571</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03583952931567189</v>
+        <v>0.0307121965781388</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1673734564.03679</v>
+        <v>1614048195.210752</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08268364226914415</v>
+        <v>0.1054454293362374</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04647929645089434</v>
+        <v>0.04127240992930711</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2639145740.841485</v>
+        <v>2457339034.098938</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1262928127969971</v>
+        <v>0.1756153550681661</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04132739501284998</v>
+        <v>0.03453098017620283</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1865491519.678517</v>
+        <v>2719090884.394989</v>
       </c>
       <c r="F86" t="n">
-        <v>0.173346361859725</v>
+        <v>0.1269066940467063</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02052497434176852</v>
+        <v>0.0223987104331495</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>985001892.3650584</v>
+        <v>1470165895.416987</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1368825581051112</v>
+        <v>0.1557575073302747</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03439080695441785</v>
+        <v>0.0327321685517107</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3000339389.716226</v>
+        <v>2263394966.46385</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1666835856333563</v>
+        <v>0.1197097723395319</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03436096013333448</v>
+        <v>0.02809433516884393</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>76</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2472446961.102106</v>
+        <v>3396704909.535007</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1315243097203643</v>
+        <v>0.1307155594490566</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02737952788993209</v>
+        <v>0.02565172136163028</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1750712578.961669</v>
+        <v>1311355496.967957</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1158287066046363</v>
+        <v>0.08659667838256216</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04435505514107098</v>
+        <v>0.04168530653922866</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1699205423.779818</v>
+        <v>1392947089.715147</v>
       </c>
       <c r="F91" t="n">
-        <v>0.167386808227779</v>
+        <v>0.193024901859273</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04391668629874893</v>
+        <v>0.05409510986479022</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2079270315.653258</v>
+        <v>2105210296.061733</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07708597328225873</v>
+        <v>0.07744200711997248</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03575091445919059</v>
+        <v>0.03826135741398728</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3681712533.058042</v>
+        <v>4849312804.665137</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1187660818526635</v>
+        <v>0.1057190367637852</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0421851094294493</v>
+        <v>0.04400723251181383</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>35</v>
+      </c>
+      <c r="J93" t="n">
+        <v>78</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2359614102.396039</v>
+        <v>2438619698.343583</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1201559119460097</v>
+        <v>0.1643952698478718</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04102771887800921</v>
+        <v>0.04288329038508171</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3156932716.918933</v>
+        <v>3013613122.516181</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031074986977637</v>
+        <v>0.1235602720655292</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05111235055232405</v>
+        <v>0.04403810361115612</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1841049249.319233</v>
+        <v>2207480069.755646</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1198612907242051</v>
+        <v>0.1311177494730119</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03604550807911504</v>
+        <v>0.04060291609871264</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5270116561.380375</v>
+        <v>3655215328.61743</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1075555151255569</v>
+        <v>0.1168652378412991</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02846979142229602</v>
+        <v>0.02075693261346859</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>37</v>
+      </c>
+      <c r="J97" t="n">
+        <v>78</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3269935398.935864</v>
+        <v>3618170230.091128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1046475637670599</v>
+        <v>0.1142767178938461</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02097279677505703</v>
+        <v>0.02355255474418369</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>77</v>
+      </c>
+      <c r="K98" t="n">
+        <v>143.8156537374828</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2707136911.610605</v>
+        <v>3087014590.944626</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1309847300029635</v>
+        <v>0.1134479001162195</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02845460611635416</v>
+        <v>0.02154433424866934</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3667598630.107087</v>
+        <v>4591207803.985408</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1682491976935599</v>
+        <v>0.1356993474835336</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02257230598162194</v>
+        <v>0.02694217619737932</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>32</v>
+      </c>
+      <c r="J100" t="n">
+        <v>78</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3378799832.880017</v>
+        <v>2733786242.695987</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2118118126553505</v>
+        <v>0.2033635416610299</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05082043761895214</v>
+        <v>0.04978413158188052</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
